--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-netlify/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92FE89E-5E17-1445-A6F7-EAFEF17FF158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1C69D-DFA1-ED4B-8458-CA337A60BF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{5BDCF2DE-D288-8A47-93F2-1E601DE6F859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
   <si>
     <t>author</t>
   </si>
@@ -422,6 +422,15 @@
   </si>
   <si>
     <t>GEO-PY in Urban Analytics</t>
+  </si>
+  <si>
+    <t>Computational Spatial Morphology</t>
+  </si>
+  <si>
+    <t>https://www.ekotov.pro/CSM2022-course-book/</t>
+  </si>
+  <si>
+    <t>Egor Kotov</t>
   </si>
 </sst>
 </file>
@@ -777,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785E614-6E2E-D84F-9372-795F7ED904A9}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,41 +1264,41 @@
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>44</v>
@@ -1297,13 +1306,13 @@
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>44</v>
@@ -1311,27 +1320,27 @@
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>44</v>
@@ -1339,44 +1348,44 @@
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1384,26 +1393,40 @@
         <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>98</v>
       </c>
     </row>

--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1C69D-DFA1-ED4B-8458-CA337A60BF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00448EBC-4D5F-D947-B96A-84C772C32E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{5BDCF2DE-D288-8A47-93F2-1E601DE6F859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
   <si>
     <t>author</t>
   </si>
@@ -431,6 +431,15 @@
   </si>
   <si>
     <t>Egor Kotov</t>
+  </si>
+  <si>
+    <t>Esther Denecke and Egor Kotov</t>
+  </si>
+  <si>
+    <t>Containers for Computational Reproducibility</t>
+  </si>
+  <si>
+    <t>https://www.ekotov.pro/2024-mpidr-summer-incubator-containers/</t>
   </si>
 </sst>
 </file>
@@ -786,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785E614-6E2E-D84F-9372-795F7ED904A9}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,18 +1117,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1127,10 +1136,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>29</v>
@@ -1138,13 +1147,13 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>29</v>
@@ -1152,111 +1161,111 @@
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>40</v>
@@ -1264,13 +1273,13 @@
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>40</v>
@@ -1278,41 +1287,41 @@
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>44</v>
@@ -1320,13 +1329,13 @@
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>44</v>
@@ -1334,27 +1343,27 @@
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>44</v>
@@ -1362,44 +1371,44 @@
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1407,26 +1416,40 @@
         <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>98</v>
       </c>
     </row>

--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00448EBC-4D5F-D947-B96A-84C772C32E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E1BB1-4A7C-4143-88AC-2A79BD0709E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{5BDCF2DE-D288-8A47-93F2-1E601DE6F859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
   <si>
     <t>author</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Andrew Heiss</t>
   </si>
   <si>
-    <t>https://datavizf24.classes.andrewheiss.com/</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Data Visualization in R</t>
   </si>
   <si>
-    <t>https://wilkelab.org/SDS375/</t>
-  </si>
-  <si>
     <t>Claus O. Wilke</t>
   </si>
   <si>
@@ -440,6 +434,18 @@
   </si>
   <si>
     <t>https://www.ekotov.pro/2024-mpidr-summer-incubator-containers/</t>
+  </si>
+  <si>
+    <t>https://datavizsp25.classes.andrewheiss.com/</t>
+  </si>
+  <si>
+    <t>https://wilkelab.org/SDS366/</t>
+  </si>
+  <si>
+    <t>Program Evaluation for Public Service</t>
+  </si>
+  <si>
+    <t>https://evalsp25.classes.andrewheiss.com/</t>
   </si>
 </sst>
 </file>
@@ -795,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785E614-6E2E-D84F-9372-795F7ED904A9}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -831,192 +837,192 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1024,433 +1030,447 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E1BB1-4A7C-4143-88AC-2A79BD0709E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A1C943-405C-464B-98FD-817D956B2BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{5BDCF2DE-D288-8A47-93F2-1E601DE6F859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="140">
   <si>
     <t>author</t>
   </si>
@@ -446,6 +446,15 @@
   </si>
   <si>
     <t>https://evalsp25.classes.andrewheiss.com/</t>
+  </si>
+  <si>
+    <t>Rebecca L. Barter</t>
+  </si>
+  <si>
+    <t>The R Workshop Book</t>
+  </si>
+  <si>
+    <t>https://www.r-workshop.org/</t>
   </si>
 </sst>
 </file>
@@ -801,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785E614-6E2E-D84F-9372-795F7ED904A9}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A25" sqref="A25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,16 +1162,16 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1170,10 +1179,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>27</v>
@@ -1181,13 +1190,13 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
@@ -1195,111 +1204,111 @@
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>38</v>
@@ -1307,13 +1316,13 @@
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
@@ -1321,41 +1330,41 @@
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>42</v>
@@ -1363,13 +1372,13 @@
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -1377,27 +1386,27 @@
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>42</v>
@@ -1405,44 +1414,44 @@
     </row>
     <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1450,26 +1459,40 @@
         <v>93</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A1C943-405C-464B-98FD-817D956B2BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0B39B3-28EB-F54C-8A5D-384702E0DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{5BDCF2DE-D288-8A47-93F2-1E601DE6F859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
   <si>
     <t>author</t>
   </si>
@@ -455,6 +455,15 @@
   </si>
   <si>
     <t>https://www.r-workshop.org/</t>
+  </si>
+  <si>
+    <t>Tiffany A. Timbers, Joel Ostblom, Florencia D’Andrea, Rodolfo Lourenzutti, Daniel Chen</t>
+  </si>
+  <si>
+    <t>Reproducible and Trustworthy Workflows for Data Science</t>
+  </si>
+  <si>
+    <t>https://ubc-dsci.github.io/reproducible-and-trustworthy-workflows-for-data-science/</t>
   </si>
 </sst>
 </file>
@@ -810,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785E614-6E2E-D84F-9372-795F7ED904A9}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,18 +1183,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1193,10 +1202,10 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
@@ -1204,13 +1213,13 @@
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
@@ -1218,111 +1227,111 @@
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
@@ -1330,13 +1339,13 @@
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
@@ -1344,41 +1353,41 @@
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -1386,13 +1395,13 @@
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>42</v>
@@ -1400,27 +1409,27 @@
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>42</v>
@@ -1428,44 +1437,44 @@
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1473,26 +1482,40 @@
         <v>93</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0B39B3-28EB-F54C-8A5D-384702E0DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992386AE-A05B-784E-9F7D-105F458A6547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{5BDCF2DE-D288-8A47-93F2-1E601DE6F859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
   <si>
     <t>author</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>https://ubc-dsci.github.io/reproducible-and-trustworthy-workflows-for-data-science/</t>
+  </si>
+  <si>
+    <t>A course on Spatial Data Science for Social Geography</t>
+  </si>
+  <si>
+    <t>https://martinfleischmann.net/sds/micro/</t>
   </si>
 </sst>
 </file>
@@ -819,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785E614-6E2E-D84F-9372-795F7ED904A9}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1292,7 @@
         <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>69</v>
@@ -1295,57 +1301,57 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
@@ -1353,13 +1359,13 @@
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
@@ -1367,41 +1373,41 @@
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>42</v>
@@ -1409,13 +1415,13 @@
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>42</v>
@@ -1423,27 +1429,27 @@
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>42</v>
@@ -1451,44 +1457,44 @@
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1496,26 +1502,40 @@
         <v>93</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992386AE-A05B-784E-9F7D-105F458A6547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836CFC5A-481B-354C-9513-A7F3A876E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{5BDCF2DE-D288-8A47-93F2-1E601DE6F859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="148">
   <si>
     <t>author</t>
   </si>
@@ -470,6 +470,15 @@
   </si>
   <si>
     <t>https://martinfleischmann.net/sds/micro/</t>
+  </si>
+  <si>
+    <t>Geospatial Python Tutorials</t>
+  </si>
+  <si>
+    <t>https://www.geopythontutorials.com/introduction.html</t>
+  </si>
+  <si>
+    <t>Ujaval Gandhi</t>
   </si>
 </sst>
 </file>
@@ -825,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785E614-6E2E-D84F-9372-795F7ED904A9}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1399,29 +1408,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>42</v>
@@ -1429,13 +1438,13 @@
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>42</v>
@@ -1443,27 +1452,27 @@
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>42</v>
@@ -1471,44 +1480,44 @@
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1516,26 +1525,40 @@
         <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836CFC5A-481B-354C-9513-A7F3A876E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00315866-0937-4342-8893-5C5B26FF2F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{5BDCF2DE-D288-8A47-93F2-1E601DE6F859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="151">
   <si>
     <t>author</t>
   </si>
@@ -479,6 +479,15 @@
   </si>
   <si>
     <t>Ujaval Gandhi</t>
+  </si>
+  <si>
+    <t>Transport Data Science</t>
+  </si>
+  <si>
+    <t>https://itsleeds.github.io/tds/</t>
+  </si>
+  <si>
+    <t>Robin Lovelace</t>
   </si>
 </sst>
 </file>
@@ -834,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785E614-6E2E-D84F-9372-795F7ED904A9}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1204,7 @@
         <v>139</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1422,29 +1431,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>42</v>
@@ -1452,13 +1461,13 @@
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>42</v>
@@ -1466,27 +1475,27 @@
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>42</v>
@@ -1494,44 +1503,44 @@
     </row>
     <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1539,26 +1548,40 @@
         <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00315866-0937-4342-8893-5C5B26FF2F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5634A107-A028-C944-9DE7-0B3E63E7D1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{5BDCF2DE-D288-8A47-93F2-1E601DE6F859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="154">
   <si>
     <t>author</t>
   </si>
@@ -488,6 +488,15 @@
   </si>
   <si>
     <t>Robin Lovelace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kodu.ut.ee/~kmoch/geopython2023/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geospatial Analysis with Python and R </t>
+  </si>
+  <si>
+    <t>Alexander Kmoch, Desalew Moges, Evelyn Uuemaa, Anto Aasa</t>
   </si>
 </sst>
 </file>
@@ -843,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785E614-6E2E-D84F-9372-795F7ED904A9}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1585,6 +1594,20 @@
         <v>96</v>
       </c>
     </row>
+    <row r="53" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5634A107-A028-C944-9DE7-0B3E63E7D1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FFCCA8-820C-9746-9FEA-ED1E634EE856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{5BDCF2DE-D288-8A47-93F2-1E601DE6F859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
   <si>
     <t>author</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>Alexander Kmoch, Desalew Moges, Evelyn Uuemaa, Anto Aasa</t>
+  </si>
+  <si>
+    <t>Mobility Flows and Accessibility Using R and Big Open Data</t>
+  </si>
+  <si>
+    <t>Egor Kotov, Johannes Mast</t>
+  </si>
+  <si>
+    <t>https://www.ekotov.pro/spanish-open-mobility-workshop-ic2s2-2025/</t>
   </si>
 </sst>
 </file>
@@ -852,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785E614-6E2E-D84F-9372-795F7ED904A9}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1608,6 +1617,20 @@
         <v>38</v>
       </c>
     </row>
+    <row r="54" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
